--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225018.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220118.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 09:50:01</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 11:01:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220118.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223818.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 11:01:48</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 11:38:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223818.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225218.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 11:38:45</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 11:52:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225218.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220119.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 11:52:52</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 12:01:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220119.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222319.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 12:01:42</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 12:23:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222319.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224219.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 12:23:08</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 12:42:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224219.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225119.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 12:42:39</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 12:51:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225119.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220019.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 12:51:14</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 01:00:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220019.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222019.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 01:00:24</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 01:20:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222019.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223619.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 01:20:16</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 01:36:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223619.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224619.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 01:36:43</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 01:46:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224619.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225519.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 01:46:09</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 01:55:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225519.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220419.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 01:55:11</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 02:04:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220419.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222219.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 02:04:39</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 02:22:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222219.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223119.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 02:22:55</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 02:31:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223119.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224019.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 02:31:41</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 02:40:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224019.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224919.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 02:40:19</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 02:49:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224919.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225819.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 02:49:12</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 02:58:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225819.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221719.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 02:58:26</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 03:17:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221719.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223519.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 03:17:33</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 03:35:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223519.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224619.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 03:35:22</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 03:46:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224619.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225519.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 03:46:09</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 03:55:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225519.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220719.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 03:55:23</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 04:07:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220719.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222219.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 04:07:03</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 04:22:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222219.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223119.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 04:22:51</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 04:31:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223119.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224019.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 04:31:45</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 04:40:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224019.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224919.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 04:40:36</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 04:49:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224919.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225819.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 04:49:58</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 04:58:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225819.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221819.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 04:58:28</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 05:18:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221819.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223519.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 05:18:46</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 05:35:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223519.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224519.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 05:35:41</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 05:45:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224519.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225419.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 05:45:41</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 05:54:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225419.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220319.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 05:54:03</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 06:03:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220319.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222319.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 06:03:43</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 06:23:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222319.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223219.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 06:23:03</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 06:32:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223219.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224119.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 06:32:08</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 06:41:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224119.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225019.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 06:41:08</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 06:50:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225019.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225819.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 06:50:05</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 06:58:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225819.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221919.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 06:58:52</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 07:19:25</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -69980,7 +69980,7 @@
         <v>4244</v>
       </c>
       <c r="K929" s="0">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L929" s="0" t="s">
         <v>4245</v>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221919.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223519.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 07:19:25</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 07:35:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223519.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224419.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 07:35:37</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 07:44:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224419.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225419.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 07:44:42</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 07:54:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225419.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220219.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 07:54:21</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 08:02:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220219.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222019.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 08:02:43</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 08:20:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222019.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222819.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 08:20:46</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 08:28:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222819.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223819.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 08:28:22</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 08:38:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223819.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224619.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 08:38:14</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 08:46:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224619.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225519.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 08:46:26</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 08:55:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225519.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221419.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 08:55:32</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 09:14:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221419.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224819.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 09:14:26</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 09:48:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224819.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221119.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 09:48:52</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 10:11:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221119.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223119.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 10:11:19</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 10:31:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223119.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224119.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 10:31:55</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 10:41:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224119.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225019.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 10:41:25</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 10:50:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225019.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225919.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 10:50:20</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 10:59:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225919.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221619.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 10:59:17</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 11:16:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221619.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223019.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 11:16:23</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 11:30:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223019.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223919.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 11:30:25</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 11:39:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223919.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224819.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 11:39:42</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 11:48:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224819.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225719.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 11:48:27</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 11:57:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225719.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221519.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 11:57:28</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 12:15:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221519.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223319.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 12:15:34</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 12:33:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223319.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224319.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 12:33:17</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 12:43:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224319.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225219.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 12:43:34</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 12:52:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225219.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220119.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 12:52:30</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 01:01:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220119.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222919.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 01:01:52</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 01:29:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222919.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225019.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 01:29:58</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 01:50:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225019.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225919.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 01:50:46</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 01:59:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225919.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221419.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 01:59:24</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 02:14:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221419.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222819.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 02:14:34</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 02:28:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222819.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223719.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 02:28:44</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 02:37:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223719.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224619.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 02:37:56</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 02:46:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224619.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225519.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 02:46:59</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 02:55:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225519.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221119.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 02:55:36</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 03:11:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221119.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223219.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 03:11:44</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 03:32:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223219.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224519.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 03:32:16</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 03:45:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224519.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225319.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 03:45:03</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 03:53:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225319.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220219.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 03:53:41</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 04:02:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220219.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221819.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 04:02:45</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 04:18:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221819.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222719.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 04:18:47</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 04:27:39</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -47517,7 +47517,7 @@
         <v>33</v>
       </c>
       <c r="S565" s="0" t="s">
-        <v>148</v>
+        <v>617</v>
       </c>
       <c r="T565" s="0" t="s">
         <v>50</v>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222719.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223619.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 04:27:39</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 04:36:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223619.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224519.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 04:36:40</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 04:45:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224519.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225419.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 04:45:52</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 04:54:44</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -26141,7 +26141,7 @@
         <v>48</v>
       </c>
       <c r="R218" s="0" t="s">
-        <v>154</v>
+        <v>308</v>
       </c>
       <c r="S218" s="0" t="s">
         <v>148</v>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225419.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220319.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 04:54:44</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 05:03:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220319.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222519.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 05:03:08</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 05:25:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222519.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223519.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 05:25:39</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 05:35:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223519.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224319.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 05:35:29</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 05:43:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224319.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225219.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 05:43:29</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 05:52:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225219.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220119.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 05:52:29</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 06:01:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220119.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221819.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 06:01:16</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 06:18:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221819.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222819.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 06:18:31</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 06:28:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222819.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223719.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 06:28:10</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 06:37:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223719.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224619.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 06:37:55</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 06:46:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224619.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225519.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 06:46:41</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 06:55:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225519.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220619.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 06:55:20</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 07:06:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220619.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222619.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 07:06:54</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 07:26:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222619.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223519.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 07:26:09</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 07:35:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223519.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224319.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 07:35:00</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 07:43:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224319.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225219.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 07:43:09</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 07:52:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225219.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220019.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 07:52:28</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 08:00:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220019.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222019.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 08:00:55</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 08:20:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222019.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223119.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 08:20:09</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 08:31:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223119.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224019.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 08:31:10</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 08:40:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224019.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225019.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 08:40:28</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 08:50:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-19.xlsx
+++ b/sigbm_download_2022-12-19.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225019.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225819.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 08:50:01</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 08:58:25</t>
   </si>
   <si>
     <t>ID Barragem</t>
